--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.010720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.010720.xlsx_with_dialog_acts.xlsx
@@ -779,12 +779,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3793,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4211,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4703,12 +4703,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5583,12 +5583,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6037,12 +6037,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6227,12 +6227,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6303,12 +6303,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7177,12 +7177,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7333,12 +7333,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7749,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8015,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8133,12 +8133,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8781,12 +8781,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8857,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10229,12 +10229,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10495,12 +10495,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11329,12 +11329,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11405,12 +11405,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11823,12 +11823,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11899,12 +11899,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12469,12 +12469,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12815,12 +12815,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
